--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.97602347192567</v>
+        <v>3.496279666666667</v>
       </c>
       <c r="H2">
-        <v>1.97602347192567</v>
+        <v>10.488839</v>
       </c>
       <c r="I2">
-        <v>0.00738146498990545</v>
+        <v>0.012257967083928</v>
       </c>
       <c r="J2">
-        <v>0.00738146498990545</v>
+        <v>0.01237343288830873</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N2">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O2">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P2">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q2">
-        <v>2.566204974685475</v>
+        <v>5.283277152215334</v>
       </c>
       <c r="R2">
-        <v>2.566204974685475</v>
+        <v>47.549494369938</v>
       </c>
       <c r="S2">
-        <v>0.000150433310686139</v>
+        <v>0.0002748050929399809</v>
       </c>
       <c r="T2">
-        <v>0.000150433310686139</v>
+        <v>0.0003073508081529229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.97602347192567</v>
+        <v>3.496279666666667</v>
       </c>
       <c r="H3">
-        <v>1.97602347192567</v>
+        <v>10.488839</v>
       </c>
       <c r="I3">
-        <v>0.00738146498990545</v>
+        <v>0.012257967083928</v>
       </c>
       <c r="J3">
-        <v>0.00738146498990545</v>
+        <v>0.01237343288830873</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N3">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P3">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q3">
-        <v>84.40638918398282</v>
+        <v>161.3664549590664</v>
       </c>
       <c r="R3">
-        <v>84.40638918398282</v>
+        <v>1452.298094631598</v>
       </c>
       <c r="S3">
-        <v>0.004947980653636412</v>
+        <v>0.008393336630812079</v>
       </c>
       <c r="T3">
-        <v>0.004947980653636412</v>
+        <v>0.00938737622720495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.97602347192567</v>
+        <v>3.496279666666667</v>
       </c>
       <c r="H4">
-        <v>1.97602347192567</v>
+        <v>10.488839</v>
       </c>
       <c r="I4">
-        <v>0.00738146498990545</v>
+        <v>0.012257967083928</v>
       </c>
       <c r="J4">
-        <v>0.00738146498990545</v>
+        <v>0.01237343288830873</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="N4">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O4">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P4">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q4">
-        <v>38.9460078528435</v>
+        <v>0.106000206934</v>
       </c>
       <c r="R4">
-        <v>38.9460078528435</v>
+        <v>0.9540018624059999</v>
       </c>
       <c r="S4">
-        <v>0.0022830510255829</v>
+        <v>5.513509111658246E-06</v>
       </c>
       <c r="T4">
-        <v>0.0022830510255829</v>
+        <v>6.166484991589195E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>257.873553674113</v>
+        <v>3.496279666666667</v>
       </c>
       <c r="H5">
-        <v>257.873553674113</v>
+        <v>10.488839</v>
       </c>
       <c r="I5">
-        <v>0.96329048481038</v>
+        <v>0.012257967083928</v>
       </c>
       <c r="J5">
-        <v>0.96329048481038</v>
+        <v>0.01237343288830873</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29867130180628</v>
+        <v>19.7096195</v>
       </c>
       <c r="N5">
-        <v>1.29867130180628</v>
+        <v>39.419239</v>
       </c>
       <c r="O5">
-        <v>0.02037987186715166</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P5">
-        <v>0.02037987186715166</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q5">
-        <v>334.892983651372</v>
+        <v>68.91034189558684</v>
       </c>
       <c r="R5">
-        <v>334.892983651372</v>
+        <v>413.4620513735211</v>
       </c>
       <c r="S5">
-        <v>0.01963173665128195</v>
+        <v>0.003584311851064287</v>
       </c>
       <c r="T5">
-        <v>0.01963173665128195</v>
+        <v>0.002672539367959271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>257.873553674113</v>
+        <v>271.3121946666667</v>
       </c>
       <c r="H6">
-        <v>257.873553674113</v>
+        <v>813.936584</v>
       </c>
       <c r="I6">
-        <v>0.96329048481038</v>
+        <v>0.9512213749373789</v>
       </c>
       <c r="J6">
-        <v>0.96329048481038</v>
+        <v>0.9601815508335351</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.7152766063691</v>
+        <v>1.511114</v>
       </c>
       <c r="N6">
-        <v>42.7152766063691</v>
+        <v>4.533342</v>
       </c>
       <c r="O6">
-        <v>0.6703250181912453</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P6">
-        <v>0.6703250181912453</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q6">
-        <v>11015.14017465711</v>
+        <v>409.9836557315254</v>
       </c>
       <c r="R6">
-        <v>11015.14017465711</v>
+        <v>3689.852901583728</v>
       </c>
       <c r="S6">
-        <v>0.6457177117539715</v>
+        <v>0.02132494536462716</v>
       </c>
       <c r="T6">
-        <v>0.6457177117539715</v>
+        <v>0.02385050117345012</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>257.873553674113</v>
+        <v>271.3121946666667</v>
       </c>
       <c r="H7">
-        <v>257.873553674113</v>
+        <v>813.936584</v>
       </c>
       <c r="I7">
-        <v>0.96329048481038</v>
+        <v>0.9512213749373789</v>
       </c>
       <c r="J7">
-        <v>0.96329048481038</v>
+        <v>0.9601815508335351</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.7092840273248</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N7">
-        <v>19.7092840273248</v>
+        <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.309295109941603</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P7">
-        <v>0.309295109941603</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q7">
-        <v>5082.503112498679</v>
+        <v>12522.07809859341</v>
       </c>
       <c r="R7">
-        <v>5082.503112498679</v>
+        <v>112698.7028873407</v>
       </c>
       <c r="S7">
-        <v>0.2979410364051266</v>
+        <v>0.6513250652093385</v>
       </c>
       <c r="T7">
-        <v>0.2979410364051266</v>
+        <v>0.7284627916487235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.85114007310257</v>
+        <v>271.3121946666667</v>
       </c>
       <c r="H8">
-        <v>7.85114007310257</v>
+        <v>813.936584</v>
       </c>
       <c r="I8">
-        <v>0.02932805019971458</v>
+        <v>0.9512213749373789</v>
       </c>
       <c r="J8">
-        <v>0.02932805019971458</v>
+        <v>0.9601815508335351</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29867130180628</v>
+        <v>0.030318</v>
       </c>
       <c r="N8">
-        <v>1.29867130180628</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O8">
-        <v>0.02037987186715166</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P8">
-        <v>0.02037987186715166</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q8">
-        <v>10.19605029939957</v>
+        <v>8.225643117904001</v>
       </c>
       <c r="R8">
-        <v>10.19605029939957</v>
+        <v>74.03078806113599</v>
       </c>
       <c r="S8">
-        <v>0.0005977019051835746</v>
+        <v>0.0004278497145581115</v>
       </c>
       <c r="T8">
-        <v>0.0005977019051835746</v>
+        <v>0.0004785208095330073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.85114007310257</v>
+        <v>271.3121946666667</v>
       </c>
       <c r="H9">
-        <v>7.85114007310257</v>
+        <v>813.936584</v>
       </c>
       <c r="I9">
-        <v>0.02932805019971458</v>
+        <v>0.9512213749373789</v>
       </c>
       <c r="J9">
-        <v>0.02932805019971458</v>
+        <v>0.9601815508335351</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.7152766063691</v>
+        <v>19.7096195</v>
       </c>
       <c r="N9">
-        <v>42.7152766063691</v>
+        <v>39.419239</v>
       </c>
       <c r="O9">
-        <v>0.6703250181912453</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P9">
-        <v>0.6703250181912453</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q9">
-        <v>335.3636198979252</v>
+        <v>5347.460122589931</v>
       </c>
       <c r="R9">
-        <v>335.3636198979252</v>
+        <v>32084.76073553958</v>
       </c>
       <c r="S9">
-        <v>0.01965932578363743</v>
+        <v>0.2781435146488551</v>
       </c>
       <c r="T9">
-        <v>0.01965932578363743</v>
+        <v>0.2073897372018284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.502045333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.506136</v>
+      </c>
+      <c r="I10">
+        <v>0.005266175480785147</v>
+      </c>
+      <c r="J10">
+        <v>0.005315781029872988</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.511114</v>
+      </c>
+      <c r="N10">
+        <v>4.533342</v>
+      </c>
+      <c r="O10">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P10">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q10">
+        <v>2.269761731834667</v>
+      </c>
+      <c r="R10">
+        <v>20.427855586512</v>
+      </c>
+      <c r="S10">
+        <v>0.0001180596939547069</v>
+      </c>
+      <c r="T10">
+        <v>0.0001320417389614789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.502045333333333</v>
+      </c>
+      <c r="H11">
+        <v>4.506136</v>
+      </c>
+      <c r="I11">
+        <v>0.005266175480785147</v>
+      </c>
+      <c r="J11">
+        <v>0.005315781029872988</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N11">
+        <v>138.461282</v>
+      </c>
+      <c r="O11">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P11">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q11">
+        <v>69.32504082515021</v>
+      </c>
+      <c r="R11">
+        <v>623.9253674263518</v>
+      </c>
+      <c r="S11">
+        <v>0.003605882057320264</v>
+      </c>
+      <c r="T11">
+        <v>0.004032933860740202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.502045333333333</v>
+      </c>
+      <c r="H12">
+        <v>4.506136</v>
+      </c>
+      <c r="I12">
+        <v>0.005266175480785147</v>
+      </c>
+      <c r="J12">
+        <v>0.005315781029872988</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.030318</v>
+      </c>
+      <c r="N12">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P12">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q12">
+        <v>0.045539010416</v>
+      </c>
+      <c r="R12">
+        <v>0.4098510937439999</v>
+      </c>
+      <c r="S12">
+        <v>2.36867225194049E-06</v>
+      </c>
+      <c r="T12">
+        <v>2.649198830686577E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>7.85114007310257</v>
-      </c>
-      <c r="H10">
-        <v>7.85114007310257</v>
-      </c>
-      <c r="I10">
-        <v>0.02932805019971458</v>
-      </c>
-      <c r="J10">
-        <v>0.02932805019971458</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="N10">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="O10">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="P10">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="Q10">
-        <v>154.7403496390901</v>
-      </c>
-      <c r="R10">
-        <v>154.7403496390901</v>
-      </c>
-      <c r="S10">
-        <v>0.009071022510893574</v>
-      </c>
-      <c r="T10">
-        <v>0.009071022510893574</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.502045333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.506136</v>
+      </c>
+      <c r="I13">
+        <v>0.005266175480785147</v>
+      </c>
+      <c r="J13">
+        <v>0.005315781029872988</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.7096195</v>
+      </c>
+      <c r="N13">
+        <v>39.419239</v>
+      </c>
+      <c r="O13">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P13">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q13">
+        <v>29.60474199175067</v>
+      </c>
+      <c r="R13">
+        <v>177.628451950504</v>
+      </c>
+      <c r="S13">
+        <v>0.001539865057258236</v>
+      </c>
+      <c r="T13">
+        <v>0.00114815623134062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.9296133333333335</v>
+      </c>
+      <c r="H14">
+        <v>2.78884</v>
+      </c>
+      <c r="I14">
+        <v>0.003259227157776164</v>
+      </c>
+      <c r="J14">
+        <v>0.003289927948768299</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.511114</v>
+      </c>
+      <c r="N14">
+        <v>4.533342</v>
+      </c>
+      <c r="O14">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P14">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q14">
+        <v>1.404751722586667</v>
+      </c>
+      <c r="R14">
+        <v>12.64276550328</v>
+      </c>
+      <c r="S14">
+        <v>7.306694624588444E-05</v>
+      </c>
+      <c r="T14">
+        <v>8.172041041045606E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.9296133333333335</v>
+      </c>
+      <c r="H15">
+        <v>2.78884</v>
+      </c>
+      <c r="I15">
+        <v>0.003259227157776164</v>
+      </c>
+      <c r="J15">
+        <v>0.003289927948768299</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N15">
+        <v>138.461282</v>
+      </c>
+      <c r="O15">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P15">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q15">
+        <v>42.9051512992089</v>
+      </c>
+      <c r="R15">
+        <v>386.14636169288</v>
+      </c>
+      <c r="S15">
+        <v>0.00223167434732042</v>
+      </c>
+      <c r="T15">
+        <v>0.002495975991001317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.9296133333333335</v>
+      </c>
+      <c r="H16">
+        <v>2.78884</v>
+      </c>
+      <c r="I16">
+        <v>0.003259227157776164</v>
+      </c>
+      <c r="J16">
+        <v>0.003289927948768299</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.030318</v>
+      </c>
+      <c r="N16">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P16">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q16">
+        <v>0.02818401704</v>
+      </c>
+      <c r="R16">
+        <v>0.25365615336</v>
+      </c>
+      <c r="S16">
+        <v>1.465967277308479E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.639584705604082E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.9296133333333335</v>
+      </c>
+      <c r="H17">
+        <v>2.78884</v>
+      </c>
+      <c r="I17">
+        <v>0.003259227157776164</v>
+      </c>
+      <c r="J17">
+        <v>0.003289927948768299</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.7096195</v>
+      </c>
+      <c r="N17">
+        <v>39.419239</v>
+      </c>
+      <c r="O17">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P17">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q17">
+        <v>18.32232508212667</v>
+      </c>
+      <c r="R17">
+        <v>109.93395049276</v>
+      </c>
+      <c r="S17">
+        <v>0.0009530198969325517</v>
+      </c>
+      <c r="T17">
+        <v>0.000710591962650922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.984949</v>
+      </c>
+      <c r="H18">
+        <v>15.969898</v>
+      </c>
+      <c r="I18">
+        <v>0.02799525534013169</v>
+      </c>
+      <c r="J18">
+        <v>0.01883930729951484</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.511114</v>
+      </c>
+      <c r="N18">
+        <v>4.533342</v>
+      </c>
+      <c r="O18">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P18">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q18">
+        <v>12.066168223186</v>
+      </c>
+      <c r="R18">
+        <v>72.39700933911601</v>
+      </c>
+      <c r="S18">
+        <v>0.0006276113072379147</v>
+      </c>
+      <c r="T18">
+        <v>0.0004679603773515588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.984949</v>
+      </c>
+      <c r="H19">
+        <v>15.969898</v>
+      </c>
+      <c r="I19">
+        <v>0.02799525534013169</v>
+      </c>
+      <c r="J19">
+        <v>0.01883930729951484</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N19">
+        <v>138.461282</v>
+      </c>
+      <c r="O19">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P19">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q19">
+        <v>368.5354250815393</v>
+      </c>
+      <c r="R19">
+        <v>2211.212550489236</v>
+      </c>
+      <c r="S19">
+        <v>0.01916905148516427</v>
+      </c>
+      <c r="T19">
+        <v>0.01429285365483138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.984949</v>
+      </c>
+      <c r="H20">
+        <v>15.969898</v>
+      </c>
+      <c r="I20">
+        <v>0.02799525534013169</v>
+      </c>
+      <c r="J20">
+        <v>0.01883930729951484</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030318</v>
+      </c>
+      <c r="N20">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P20">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q20">
+        <v>0.242087683782</v>
+      </c>
+      <c r="R20">
+        <v>1.452526102692</v>
+      </c>
+      <c r="S20">
+        <v>1.259198155323761E-05</v>
+      </c>
+      <c r="T20">
+        <v>9.388850027558846E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.984949</v>
+      </c>
+      <c r="H21">
+        <v>15.969898</v>
+      </c>
+      <c r="I21">
+        <v>0.02799525534013169</v>
+      </c>
+      <c r="J21">
+        <v>0.01883930729951484</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.7096195</v>
+      </c>
+      <c r="N21">
+        <v>39.419239</v>
+      </c>
+      <c r="O21">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P21">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q21">
+        <v>157.3803065169055</v>
+      </c>
+      <c r="R21">
+        <v>629.5212260676221</v>
+      </c>
+      <c r="S21">
+        <v>0.008186000566176275</v>
+      </c>
+      <c r="T21">
+        <v>0.004069104417304339</v>
       </c>
     </row>
   </sheetData>
